--- a/123BO_Backtest.xlsx
+++ b/123BO_Backtest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\DayTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4A2FCBF-571E-4B49-84E4-217CA9E1A9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36137B-08EF-4EF7-B039-8D3C4A1BF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{3DD3BEE8-4BB9-4A5A-AAF8-E2CD2FCF3D35}"/>
+    <workbookView xWindow="2865" yWindow="1005" windowWidth="19770" windowHeight="11505" xr2:uid="{3DD3BEE8-4BB9-4A5A-AAF8-E2CD2FCF3D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Chiến thuật" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="108">
   <si>
     <t>STT</t>
   </si>
@@ -355,6 +355,18 @@
   <si>
     <t>Lợi nhuận trung bình</t>
   </si>
+  <si>
+    <t>Số lệnh cần đánh 1 tháng</t>
+  </si>
+  <si>
+    <t>Số lệnh cần đánh 1 ngày</t>
+  </si>
+  <si>
+    <t>Số lệnh cần đánh 1 tuần</t>
+  </si>
+  <si>
+    <t>Số tiền lãi mong muốn 1 tháng</t>
+  </si>
 </sst>
 </file>
 
@@ -448,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -500,6 +512,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -511,12 +530,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12661,10 +12674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D539EC2-28A9-46ED-B007-2BBADF7F1AC8}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12812,9 +12825,9 @@
       </c>
     </row>
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" s="23">
+      <c r="G18" s="19">
         <f>G16*G20</f>
-        <v>79.699999999999989</v>
+        <v>159.39999999999998</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
@@ -12823,8 +12836,8 @@
       </c>
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" s="24">
-        <v>100</v>
+      <c r="G20" s="20">
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
@@ -12857,7 +12870,50 @@
     <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26">
         <f>(G18*(G22/100))-(G20*(G24/100))</f>
-        <v>23.992999999999988</v>
+        <v>47.985999999999976</v>
+      </c>
+    </row>
+    <row r="27" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="21">
+        <f xml:space="preserve"> G28/G26</f>
+        <v>20.839411495019391</v>
+      </c>
+    </row>
+    <row r="31" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <f>G30/30</f>
+        <v>0.69464704983397974</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G33" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G34" s="21">
+        <f>7 * G32</f>
+        <v>4.8625293488378585</v>
       </c>
     </row>
   </sheetData>
@@ -12890,41 +12946,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -12940,18 +12996,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99999)</f>
         <v>11</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -12967,13 +13023,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99999)</f>
         <v>14.5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -13472,41 +13528,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -13522,18 +13578,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99999)</f>
         <v>18</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -13549,13 +13605,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99987)</f>
         <v>3.5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -14349,41 +14405,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -14399,18 +14455,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99999)</f>
         <v>12</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -14426,13 +14482,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99966)</f>
         <v>10.5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -14980,41 +15036,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -15030,18 +15086,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99982)</f>
         <v>15</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -15057,13 +15113,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99949)</f>
         <v>14.6</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -15734,41 +15790,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -15784,18 +15840,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99956)</f>
         <v>26</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -15811,13 +15867,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99923)</f>
         <v>9.5</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -16939,41 +16995,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -16989,18 +17045,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99931)</f>
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -17016,13 +17072,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99898)</f>
         <v>10</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -17280,41 +17336,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -17330,18 +17386,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99927)</f>
         <v>5</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -17357,13 +17413,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99894)</f>
         <v>9</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -17621,41 +17677,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="21" t="s">
+      <c r="E1" s="23"/>
+      <c r="F1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="22" t="s">
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
@@ -17671,18 +17727,18 @@
       <c r="H2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="22"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="14">
         <f>COUNT(A4:A99923)</f>
         <v>8</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>13</v>
       </c>
@@ -17698,13 +17754,13 @@
       <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="25"/>
       <c r="J3" s="13">
         <f>SUM(J4:J99890)</f>
         <v>8.1</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" spans="1:12" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">

--- a/123BO_Backtest.xlsx
+++ b/123BO_Backtest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projects\DayTrading\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A36137B-08EF-4EF7-B039-8D3C4A1BF023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6700166B-4ADB-4EF2-A402-A519D766763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2865" yWindow="1005" windowWidth="19770" windowHeight="11505" xr2:uid="{3DD3BEE8-4BB9-4A5A-AAF8-E2CD2FCF3D35}"/>
   </bookViews>
@@ -12677,7 +12677,7 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12827,7 +12827,7 @@
     <row r="18" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G18" s="19">
         <f>G16*G20</f>
-        <v>159.39999999999998</v>
+        <v>199.24999999999997</v>
       </c>
     </row>
     <row r="19" spans="7:7" x14ac:dyDescent="0.25">
@@ -12837,7 +12837,7 @@
     </row>
     <row r="20" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G20" s="20">
-        <v>200</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.25">
@@ -12870,7 +12870,7 @@
     <row r="26" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G26">
         <f>(G18*(G22/100))-(G20*(G24/100))</f>
-        <v>47.985999999999976</v>
+        <v>59.982499999999959</v>
       </c>
     </row>
     <row r="27" spans="7:7" x14ac:dyDescent="0.25">
@@ -12891,7 +12891,7 @@
     <row r="30" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G30" s="21">
         <f xml:space="preserve"> G28/G26</f>
-        <v>20.839411495019391</v>
+        <v>16.671529196015516</v>
       </c>
     </row>
     <row r="31" spans="7:7" x14ac:dyDescent="0.25">
@@ -12900,9 +12900,9 @@
       </c>
     </row>
     <row r="32" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G32">
+      <c r="G32" s="21">
         <f>G30/30</f>
-        <v>0.69464704983397974</v>
+        <v>0.55571763986718392</v>
       </c>
     </row>
     <row r="33" spans="7:7" x14ac:dyDescent="0.25">
@@ -12913,7 +12913,7 @@
     <row r="34" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G34" s="21">
         <f>7 * G32</f>
-        <v>4.8625293488378585</v>
+        <v>3.8900234790702877</v>
       </c>
     </row>
   </sheetData>
